--- a/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +565,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -681,7 +687,6 @@
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -734,7 +739,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>completed</t>
@@ -743,21 +747,11 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -810,7 +804,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -819,15 +812,6 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -890,7 +874,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -899,15 +882,6 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -970,7 +944,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -979,15 +952,6 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1050,7 +1014,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1059,21 +1022,11 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1126,7 +1079,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1135,21 +1087,11 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1202,7 +1144,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1211,17 +1152,6 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1274,7 +1204,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1283,17 +1212,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1347,7 +1265,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1356,15 +1273,6 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1427,7 +1335,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1436,15 +1343,6 @@
       <c r="O12" t="n">
         <v>0.05</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1507,7 +1405,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1516,15 +1413,6 @@
       <c r="O13" t="n">
         <v>0.05</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1587,7 +1475,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1596,17 +1483,6 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1659,7 +1535,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1668,15 +1543,6 @@
       <c r="O15" t="n">
         <v>0.1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1739,7 +1605,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1748,15 +1613,6 @@
       <c r="O16" t="n">
         <v>0.05</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1819,7 +1675,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1828,17 +1683,6 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1891,7 +1735,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1900,15 +1743,6 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -1971,7 +1805,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -1980,17 +1813,6 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2043,7 +1865,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -2052,17 +1873,6 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2115,7 +1925,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -2124,15 +1933,6 @@
       <c r="O21" t="n">
         <v>0.5</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>LCM</t>
@@ -2195,7 +1995,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2204,17 +2003,6 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2267,7 +2055,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2276,17 +2063,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2339,7 +2115,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2348,17 +2123,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2411,7 +2175,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2420,17 +2183,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2483,7 +2235,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2492,17 +2243,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2555,7 +2295,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2564,17 +2303,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2627,7 +2355,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2636,17 +2363,6 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2699,7 +2415,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2708,17 +2423,6 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2771,7 +2475,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2780,17 +2483,6 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2843,7 +2535,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2852,17 +2543,6 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2915,7 +2595,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2924,17 +2603,6 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2987,7 +2655,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2996,17 +2663,6 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3059,7 +2715,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3068,17 +2723,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3131,7 +2775,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3140,17 +2783,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3203,7 +2835,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3212,17 +2843,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3275,7 +2895,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3284,17 +2903,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3347,7 +2955,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3356,17 +2963,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3419,7 +3015,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3428,17 +3023,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3491,7 +3075,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3500,17 +3083,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3563,7 +3135,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3572,17 +3143,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3635,7 +3195,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3644,17 +3203,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3707,7 +3255,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3716,17 +3263,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3779,7 +3315,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3788,17 +3323,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3851,7 +3375,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3860,17 +3383,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3923,7 +3435,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3932,17 +3443,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3995,7 +3495,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4004,17 +3503,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4067,7 +3555,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4076,17 +3563,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4139,7 +3615,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4148,17 +3623,79 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -565,7 +565,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -608,11 +633,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -621,11 +641,6 @@
       <c r="K2" t="n">
         <v>3104073.56</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>339381.46</v>
       </c>
@@ -3626,7 +3641,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,3083 +567,3650 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>301769</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Odiongan National High School</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>ODIONGAN</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>3104073.56</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="n">
         <v>339381.46</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>BEFF-H-001</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>BEFF-H-001</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>November 30, 2023</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>January 12, 2024</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>July 2, 2024</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
+      <c r="Z2" s="3" t="inlineStr"/>
+      <c r="AA2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>110741</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Algeciras ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>AGUTAYA</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF THREE (3) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>665864.2309213009</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="3" t="inlineStr"/>
+      <c r="X3" s="3" t="inlineStr"/>
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
+      <c r="Z3" s="3" t="inlineStr"/>
+      <c r="AA3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>110964</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Cagayancillo CS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>CAGAYANCILLO</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>447119.717768955</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr"/>
+      <c r="R4" s="3" t="inlineStr"/>
+      <c r="S4" s="3" t="inlineStr"/>
+      <c r="T4" s="3" t="inlineStr"/>
+      <c r="U4" s="3" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr"/>
+      <c r="W4" s="3" t="inlineStr"/>
+      <c r="X4" s="3" t="inlineStr"/>
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>110970</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Sta Cruz ES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>CAGAYANCILLO</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>447119.717768955</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr"/>
+      <c r="W5" s="3" t="inlineStr"/>
+      <c r="X5" s="3" t="inlineStr"/>
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>301677</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Cagayancillo NHS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>CAGAYANCILLO</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF THREE (3) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>675176.83311772</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="3" t="inlineStr"/>
+      <c r="W6" s="3" t="inlineStr"/>
+      <c r="X6" s="3" t="inlineStr"/>
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>110949</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Nangalao ES</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>LINAPACAN</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>444710.072422455</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr"/>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr"/>
+      <c r="W7" s="3" t="inlineStr"/>
+      <c r="X7" s="3" t="inlineStr"/>
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
+      <c r="Z7" s="3" t="inlineStr"/>
+      <c r="AA7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>309165</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Nangalao NHS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>LINAPACAN</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="3" t="n">
         <v>449394.492584247</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="O8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr"/>
+      <c r="R8" s="3" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr"/>
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+      <c r="X8" s="3" t="inlineStr"/>
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>301689</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Danawan National High School</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="3" t="n">
         <v>425039.930975247</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
+      <c r="W9" s="3" t="inlineStr"/>
+      <c r="X9" s="3" t="inlineStr"/>
+      <c r="Y9" s="3" t="inlineStr"/>
+      <c r="Z9" s="3" t="inlineStr"/>
+      <c r="AA9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>301698</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Gaudencio Abordo Mem. National High School - Rizal NHS</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="3" t="n">
         <v>425039.930975247</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr"/>
+      <c r="R10" s="3" t="inlineStr"/>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr"/>
+      <c r="U10" s="3" t="inlineStr"/>
+      <c r="V10" s="3" t="inlineStr"/>
+      <c r="W10" s="3" t="inlineStr"/>
+      <c r="X10" s="3" t="inlineStr"/>
+      <c r="Y10" s="3" t="inlineStr"/>
+      <c r="Z10" s="3" t="inlineStr"/>
+      <c r="AA10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>111192</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Macatumbalen Elementary School</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)
 </t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="3" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr"/>
+      <c r="Q11" s="3" t="inlineStr"/>
+      <c r="R11" s="3" t="inlineStr"/>
+      <c r="S11" s="3" t="inlineStr"/>
+      <c r="T11" s="3" t="inlineStr"/>
+      <c r="U11" s="3" t="inlineStr"/>
+      <c r="V11" s="3" t="inlineStr"/>
+      <c r="W11" s="3" t="inlineStr"/>
+      <c r="X11" s="3" t="inlineStr"/>
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>111193</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>New Agutaya ES</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="3" t="n">
         <v>266050.178</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="inlineStr"/>
+      <c r="S12" s="3" t="inlineStr"/>
+      <c r="T12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
+      <c r="W12" s="3" t="inlineStr"/>
+      <c r="X12" s="3" t="inlineStr"/>
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>111201</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>San Vicente CS</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="3" t="n">
         <v>263482.09</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr"/>
+      <c r="Q13" s="3" t="inlineStr"/>
+      <c r="R13" s="3" t="inlineStr"/>
+      <c r="S13" s="3" t="inlineStr"/>
+      <c r="T13" s="3" t="inlineStr"/>
+      <c r="U13" s="3" t="inlineStr"/>
+      <c r="V13" s="3" t="inlineStr"/>
+      <c r="W13" s="3" t="inlineStr"/>
+      <c r="X13" s="3" t="inlineStr"/>
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>111199</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Panindigan ES</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="3" t="n">
         <v>263473.62</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr"/>
+      <c r="R14" s="3" t="inlineStr"/>
+      <c r="S14" s="3" t="inlineStr"/>
+      <c r="T14" s="3" t="inlineStr"/>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr"/>
+      <c r="W14" s="3" t="inlineStr"/>
+      <c r="X14" s="3" t="inlineStr"/>
+      <c r="Y14" s="3" t="inlineStr"/>
+      <c r="Z14" s="3" t="inlineStr"/>
+      <c r="AA14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>111200</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Port Barton ES</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="3" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr"/>
+      <c r="Q15" s="3" t="inlineStr"/>
+      <c r="R15" s="3" t="inlineStr"/>
+      <c r="S15" s="3" t="inlineStr"/>
+      <c r="T15" s="3" t="inlineStr"/>
+      <c r="U15" s="3" t="inlineStr"/>
+      <c r="V15" s="3" t="inlineStr"/>
+      <c r="W15" s="3" t="inlineStr"/>
+      <c r="X15" s="3" t="inlineStr"/>
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="3" t="n">
         <v>111191</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Kemdeng ES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="3" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr"/>
+      <c r="R16" s="3" t="inlineStr"/>
+      <c r="S16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr"/>
+      <c r="U16" s="3" t="inlineStr"/>
+      <c r="V16" s="3" t="inlineStr"/>
+      <c r="W16" s="3" t="inlineStr"/>
+      <c r="X16" s="3" t="inlineStr"/>
+      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="3" t="n">
         <v>111190</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Irawan ES</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="3" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P17" s="3" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr"/>
+      <c r="R17" s="3" t="inlineStr"/>
+      <c r="S17" s="3" t="inlineStr"/>
+      <c r="T17" s="3" t="inlineStr"/>
+      <c r="U17" s="3" t="inlineStr"/>
+      <c r="V17" s="3" t="inlineStr"/>
+      <c r="W17" s="3" t="inlineStr"/>
+      <c r="X17" s="3" t="inlineStr"/>
+      <c r="Y17" s="3" t="inlineStr"/>
+      <c r="Z17" s="3" t="inlineStr"/>
+      <c r="AA17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3" t="n">
         <v>111204</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>TDC ES</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="3" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr"/>
+      <c r="R18" s="3" t="inlineStr"/>
+      <c r="S18" s="3" t="inlineStr"/>
+      <c r="T18" s="3" t="inlineStr"/>
+      <c r="U18" s="3" t="inlineStr"/>
+      <c r="V18" s="3" t="inlineStr"/>
+      <c r="W18" s="3" t="inlineStr"/>
+      <c r="X18" s="3" t="inlineStr"/>
+      <c r="Y18" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="3" t="n">
         <v>301660</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Alimanguan NHS</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="3" t="n">
         <v>268172.954690988</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="R19" s="3" t="inlineStr"/>
+      <c r="S19" s="3" t="inlineStr"/>
+      <c r="T19" s="3" t="inlineStr"/>
+      <c r="U19" s="3" t="inlineStr"/>
+      <c r="V19" s="3" t="inlineStr"/>
+      <c r="W19" s="3" t="inlineStr"/>
+      <c r="X19" s="3" t="inlineStr"/>
+      <c r="Y19" s="3" t="inlineStr"/>
+      <c r="Z19" s="3" t="inlineStr"/>
+      <c r="AA19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="3" t="n">
         <v>301738</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>San Vicente NHS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="3" t="n">
         <v>265604.86</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P20" s="3" t="inlineStr"/>
+      <c r="Q20" s="3" t="inlineStr"/>
+      <c r="R20" s="3" t="inlineStr"/>
+      <c r="S20" s="3" t="inlineStr"/>
+      <c r="T20" s="3" t="inlineStr"/>
+      <c r="U20" s="3" t="inlineStr"/>
+      <c r="V20" s="3" t="inlineStr"/>
+      <c r="W20" s="3" t="inlineStr"/>
+      <c r="X20" s="3" t="inlineStr"/>
+      <c r="Y20" s="3" t="inlineStr"/>
+      <c r="Z20" s="3" t="inlineStr"/>
+      <c r="AA20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="3" t="n">
         <v>301723</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>Port Barton NHS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="3" t="n">
         <v>265604.86</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="P21" s="3" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr"/>
+      <c r="R21" s="3" t="inlineStr"/>
+      <c r="S21" s="3" t="inlineStr"/>
+      <c r="T21" s="3" t="inlineStr"/>
+      <c r="U21" s="3" t="inlineStr"/>
+      <c r="V21" s="3" t="inlineStr"/>
+      <c r="W21" s="3" t="inlineStr"/>
+      <c r="X21" s="3" t="inlineStr"/>
+      <c r="Y21" s="3" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" s="3" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
+      <c r="AA21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="3" t="n">
         <v>301777</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Tugdan NHS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="3" t="n">
         <v>178748.66</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
+      <c r="O22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="inlineStr"/>
+      <c r="Q22" s="3" t="inlineStr"/>
+      <c r="R22" s="3" t="inlineStr"/>
+      <c r="S22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr"/>
+      <c r="U22" s="3" t="inlineStr"/>
+      <c r="V22" s="3" t="inlineStr"/>
+      <c r="W22" s="3" t="inlineStr"/>
+      <c r="X22" s="3" t="inlineStr"/>
+      <c r="Y22" s="3" t="inlineStr"/>
+      <c r="Z22" s="3" t="inlineStr"/>
+      <c r="AA22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="3" t="n">
         <v>111262</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>Gui-ob Elementary School</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="3" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
+      <c r="O23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="inlineStr"/>
+      <c r="Q23" s="3" t="inlineStr"/>
+      <c r="R23" s="3" t="inlineStr"/>
+      <c r="S23" s="3" t="inlineStr"/>
+      <c r="T23" s="3" t="inlineStr"/>
+      <c r="U23" s="3" t="inlineStr"/>
+      <c r="V23" s="3" t="inlineStr"/>
+      <c r="W23" s="3" t="inlineStr"/>
+      <c r="X23" s="3" t="inlineStr"/>
+      <c r="Y23" s="3" t="inlineStr"/>
+      <c r="Z23" s="3" t="inlineStr"/>
+      <c r="AA23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="3" t="n">
         <v>111265</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>San Roque Elementary School</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="3" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr"/>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
+      <c r="X24" s="3" t="inlineStr"/>
+      <c r="Y24" s="3" t="inlineStr"/>
+      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="AA24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="3" t="n">
         <v>111255</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Alcantara CES</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="3" t="n">
         <v>171797.63</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
+      <c r="O25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="inlineStr"/>
+      <c r="Q25" s="3" t="inlineStr"/>
+      <c r="R25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr"/>
+      <c r="W25" s="3" t="inlineStr"/>
+      <c r="X25" s="3" t="inlineStr"/>
+      <c r="Y25" s="3" t="inlineStr"/>
+      <c r="Z25" s="3" t="inlineStr"/>
+      <c r="AA25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="3" t="n">
         <v>111266</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>Tugdan ES</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="3" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
+      <c r="W26" s="3" t="inlineStr"/>
+      <c r="X26" s="3" t="inlineStr"/>
+      <c r="Y26" s="3" t="inlineStr"/>
+      <c r="Z26" s="3" t="inlineStr"/>
+      <c r="AA26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="3" t="n">
         <v>171004</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>Felipe Madali MES</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="3" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
+      <c r="O27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="inlineStr"/>
+      <c r="Q27" s="3" t="inlineStr"/>
+      <c r="R27" s="3" t="inlineStr"/>
+      <c r="S27" s="3" t="inlineStr"/>
+      <c r="T27" s="3" t="inlineStr"/>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr"/>
+      <c r="W27" s="3" t="inlineStr"/>
+      <c r="X27" s="3" t="inlineStr"/>
+      <c r="Y27" s="3" t="inlineStr"/>
+      <c r="Z27" s="3" t="inlineStr"/>
+      <c r="AA27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="3" t="n">
         <v>111261</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>Don Manuel L. Solidum Memorial Elementary School</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="3" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
+      <c r="O28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="inlineStr"/>
+      <c r="Q28" s="3" t="inlineStr"/>
+      <c r="R28" s="3" t="inlineStr"/>
+      <c r="S28" s="3" t="inlineStr"/>
+      <c r="T28" s="3" t="inlineStr"/>
+      <c r="U28" s="3" t="inlineStr"/>
+      <c r="V28" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="inlineStr"/>
+      <c r="X28" s="3" t="inlineStr"/>
+      <c r="Y28" s="3" t="inlineStr"/>
+      <c r="Z28" s="3" t="inlineStr"/>
+      <c r="AA28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="3" t="n">
         <v>301750</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>Banton NHS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>BANTON</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="3" t="n">
         <v>199748.66</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="L29" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr"/>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr"/>
+      <c r="U29" s="3" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr"/>
+      <c r="X29" s="3" t="inlineStr"/>
+      <c r="Y29" s="3" t="inlineStr"/>
+      <c r="Z29" s="3" t="inlineStr"/>
+      <c r="AA29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="3" t="n">
         <v>111269</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>Banton CES</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>BANTON</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="3" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
+      <c r="O30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr"/>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr"/>
+      <c r="V30" s="3" t="inlineStr"/>
+      <c r="W30" s="3" t="inlineStr"/>
+      <c r="X30" s="3" t="inlineStr"/>
+      <c r="Y30" s="3" t="inlineStr"/>
+      <c r="Z30" s="3" t="inlineStr"/>
+      <c r="AA30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="3" t="n">
         <v>111393</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>Balogo ES</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="3" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
+      <c r="O31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr"/>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="3" t="inlineStr"/>
+      <c r="U31" s="3" t="inlineStr"/>
+      <c r="V31" s="3" t="inlineStr"/>
+      <c r="W31" s="3" t="inlineStr"/>
+      <c r="X31" s="3" t="inlineStr"/>
+      <c r="Y31" s="3" t="inlineStr"/>
+      <c r="Z31" s="3" t="inlineStr"/>
+      <c r="AA31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="3" t="n">
         <v>111397</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>Calatrava Elementary School</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="3" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
+      <c r="O32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr"/>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr"/>
+      <c r="X32" s="3" t="inlineStr"/>
+      <c r="Y32" s="3" t="inlineStr"/>
+      <c r="Z32" s="3" t="inlineStr"/>
+      <c r="AA32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="3" t="n">
         <v>309201</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Calatrava National High School</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="3" t="n">
         <v>183998.66</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
+      <c r="O33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr"/>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
+      <c r="X33" s="3" t="inlineStr"/>
+      <c r="Y33" s="3" t="inlineStr"/>
+      <c r="Z33" s="3" t="inlineStr"/>
+      <c r="AA33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="3" t="n">
         <v>111412</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>Josefina Fetalino Malayo ES</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="3" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
+      <c r="O34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr"/>
+      <c r="Y34" s="3" t="inlineStr"/>
+      <c r="Z34" s="3" t="inlineStr"/>
+      <c r="AA34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="3" t="n">
         <v>111319</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>Tacasan ES</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="3" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
+      <c r="O35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
+      <c r="X35" s="3" t="inlineStr"/>
+      <c r="Y35" s="3" t="inlineStr"/>
+      <c r="Z35" s="3" t="inlineStr"/>
+      <c r="AA35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="3" t="n">
         <v>301766</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>Mabini NHS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="3" t="n">
         <v>199748.66</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
+      <c r="O36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
+      <c r="X36" s="3" t="inlineStr"/>
+      <c r="Y36" s="3" t="inlineStr"/>
+      <c r="Z36" s="3" t="inlineStr"/>
+      <c r="AA36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="3" t="n">
         <v>111315</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>Mahaba Elementary School</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="3" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
+      <c r="O37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr"/>
+      <c r="X37" s="3" t="inlineStr"/>
+      <c r="Y37" s="3" t="inlineStr"/>
+      <c r="Z37" s="3" t="inlineStr"/>
+      <c r="AA37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="3" t="n">
         <v>111307</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>Alegria ES</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="3" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+      <c r="X38" s="3" t="inlineStr"/>
+      <c r="Y38" s="3" t="inlineStr"/>
+      <c r="Z38" s="3" t="inlineStr"/>
+      <c r="AA38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="3" t="n">
         <v>301757</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>Corcuera National High School</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" s="3" t="n">
         <v>199748.66</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
+      <c r="O39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+      <c r="X39" s="3" t="inlineStr"/>
+      <c r="Y39" s="3" t="inlineStr"/>
+      <c r="Z39" s="3" t="inlineStr"/>
+      <c r="AA39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="3" t="n">
         <v>111350</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>Bunsoran ES</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>FERROL</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
+      <c r="O40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
+      <c r="X40" s="3" t="inlineStr"/>
+      <c r="Y40" s="3" t="inlineStr"/>
+      <c r="Z40" s="3" t="inlineStr"/>
+      <c r="AA40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="3" t="n">
         <v>111351</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>Claro M. Recto ES</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>FERROL</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
+      <c r="O41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
+      <c r="W41" s="3" t="inlineStr"/>
+      <c r="X41" s="3" t="inlineStr"/>
+      <c r="Y41" s="3" t="inlineStr"/>
+      <c r="Z41" s="3" t="inlineStr"/>
+      <c r="AA41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="3" t="n">
         <v>111292</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>Magdiwang ES</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="3" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
+      <c r="O42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+      <c r="W42" s="3" t="inlineStr"/>
+      <c r="X42" s="3" t="inlineStr"/>
+      <c r="Y42" s="3" t="inlineStr"/>
+      <c r="Z42" s="3" t="inlineStr"/>
+      <c r="AA42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="3" t="n">
         <v>111286</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>Dulangan ES</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
+      <c r="O43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
+      <c r="W43" s="3" t="inlineStr"/>
+      <c r="X43" s="3" t="inlineStr"/>
+      <c r="Y43" s="3" t="inlineStr"/>
+      <c r="Z43" s="3" t="inlineStr"/>
+      <c r="AA43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="3" t="n">
         <v>309207</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>Agutay NHS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="3" t="n">
         <v>189248.66</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
+      <c r="O44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr"/>
+      <c r="X44" s="3" t="inlineStr"/>
+      <c r="Y44" s="3" t="inlineStr"/>
+      <c r="Z44" s="3" t="inlineStr"/>
+      <c r="AA44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="3" t="n">
         <v>111289</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>Ipil ES</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
+      <c r="O45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr"/>
+      <c r="X45" s="3" t="inlineStr"/>
+      <c r="Y45" s="3" t="inlineStr"/>
+      <c r="Z45" s="3" t="inlineStr"/>
+      <c r="AA45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="3" t="n">
         <v>111297</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>Tampayan ES</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" t="n">
-        <v>1</v>
-      </c>
+      <c r="O46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
+      <c r="W46" s="3" t="inlineStr"/>
+      <c r="X46" s="3" t="inlineStr"/>
+      <c r="Y46" s="3" t="inlineStr"/>
+      <c r="Z46" s="3" t="inlineStr"/>
+      <c r="AA46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="3" t="n">
         <v>111394</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>Bonga ES</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>SANTA MARIA (IMELDA)</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
+      <c r="O47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3" t="inlineStr"/>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr"/>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr"/>
+      <c r="X47" s="3" t="inlineStr"/>
+      <c r="Y47" s="3" t="inlineStr"/>
+      <c r="Z47" s="3" t="inlineStr"/>
+      <c r="AA47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="3" t="n">
         <v>111401</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>Concepcion Norte ES</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>SANTA MARIA (IMELDA)</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="3" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
+      <c r="O48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3" t="inlineStr"/>
+      <c r="Q48" s="3" t="inlineStr"/>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr"/>
+      <c r="X48" s="3" t="inlineStr"/>
+      <c r="Y48" s="3" t="inlineStr"/>
+      <c r="Z48" s="3" t="inlineStr"/>
+      <c r="AA48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="3" t="n">
         <v>111415</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>Talamban Elementary School</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>SANTA MARIA (IMELDA)</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="3" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="L49" s="3" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
+      <c r="O49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr"/>
+      <c r="X49" s="3" t="inlineStr"/>
+      <c r="Y49" s="3" t="inlineStr"/>
+      <c r="Z49" s="3" t="inlineStr"/>
+      <c r="AA49" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AF2:AF49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">

--- a/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_HEALTH.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,344 +449,355 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="56" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="154" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="56" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="154" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="49" customWidth="1" min="25" max="25"/>
-    <col width="17" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="49" customWidth="1" min="26" max="26"/>
+    <col width="17" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="3" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Region IV-B</t>
-        </is>
-      </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>301769</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Odiongan National High School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>ODIONGAN</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="L2" s="4" t="n">
         <v>3104073.56</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="n">
         <v>339381.46</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>BEFF-H-001</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>BEFF-H-001</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>November 30, 2023</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>January 12, 2024</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>July 2, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="5" t="n"/>
+      <c r="AA2" s="4" t="inlineStr"/>
+      <c r="AB2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A3" s="4" t="n">
+        <v>532</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>110741</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Algeciras ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>AGUTAYA</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF THREE (3) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="L3" s="4" t="n">
         <v>665864.2309213009</v>
       </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr"/>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr"/>
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr"/>
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" s="4" t="inlineStr"/>
       <c r="R3" s="4" t="inlineStr"/>
       <c r="S3" s="4" t="inlineStr"/>
@@ -795,75 +806,78 @@
       <c r="V3" s="4" t="inlineStr"/>
       <c r="W3" s="4" t="inlineStr"/>
       <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr"/>
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="5" t="n"/>
+      <c r="AA3" s="4" t="inlineStr"/>
+      <c r="AB3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A4" s="4" t="n">
+        <v>533</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>110964</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Cagayancillo CS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>CAGAYANCILLO</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>447119.717768955</v>
       </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr"/>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr"/>
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="P4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="4" t="inlineStr"/>
       <c r="Q4" s="4" t="inlineStr"/>
       <c r="R4" s="4" t="inlineStr"/>
       <c r="S4" s="4" t="inlineStr"/>
@@ -872,79 +886,82 @@
       <c r="V4" s="4" t="inlineStr"/>
       <c r="W4" s="4" t="inlineStr"/>
       <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr"/>
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="n"/>
+      <c r="AB4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A5" s="4" t="n">
+        <v>534</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>110970</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Sta Cruz ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>CAGAYANCILLO</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="L5" s="4" t="n">
         <v>447119.717768955</v>
       </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="inlineStr"/>
       <c r="Q5" s="4" t="inlineStr"/>
       <c r="R5" s="4" t="inlineStr"/>
       <c r="S5" s="4" t="inlineStr"/>
@@ -953,79 +970,82 @@
       <c r="V5" s="4" t="inlineStr"/>
       <c r="W5" s="4" t="inlineStr"/>
       <c r="X5" s="4" t="inlineStr"/>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr"/>
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="n"/>
+      <c r="AB5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A6" s="4" t="n">
+        <v>535</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>301677</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Cagayancillo NHS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>CAGAYANCILLO</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF THREE (3) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <v>675176.83311772</v>
       </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="P6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="inlineStr"/>
       <c r="Q6" s="4" t="inlineStr"/>
       <c r="R6" s="4" t="inlineStr"/>
       <c r="S6" s="4" t="inlineStr"/>
@@ -1034,79 +1054,82 @@
       <c r="V6" s="4" t="inlineStr"/>
       <c r="W6" s="4" t="inlineStr"/>
       <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr"/>
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A7" s="4" t="n">
+        <v>536</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>110949</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Nangalao ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>LINAPACAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (UPDATED OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="L7" s="4" t="n">
         <v>444710.072422455</v>
       </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" s="4" t="inlineStr"/>
       <c r="R7" s="4" t="inlineStr"/>
       <c r="S7" s="4" t="inlineStr"/>
@@ -1115,75 +1138,78 @@
       <c r="V7" s="4" t="inlineStr"/>
       <c r="W7" s="4" t="inlineStr"/>
       <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr"/>
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="AA7" s="4" t="inlineStr"/>
+      <c r="AB7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A8" s="4" t="n">
+        <v>537</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>309165</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Nangalao NHS</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>LINAPACAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>449394.492584247</v>
       </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="inlineStr"/>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr"/>
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr"/>
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" s="4" t="inlineStr"/>
       <c r="R8" s="4" t="inlineStr"/>
       <c r="S8" s="4" t="inlineStr"/>
@@ -1192,75 +1218,78 @@
       <c r="V8" s="4" t="inlineStr"/>
       <c r="W8" s="4" t="inlineStr"/>
       <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr"/>
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>RBM2 CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="5" t="n"/>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A9" s="4" t="n">
+        <v>538</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>301689</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Danawan National High School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>425039.930975247</v>
       </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr"/>
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" s="4" t="inlineStr"/>
       <c r="R9" s="4" t="inlineStr"/>
       <c r="S9" s="4" t="inlineStr"/>
@@ -1271,69 +1300,72 @@
       <c r="X9" s="4" t="inlineStr"/>
       <c r="Y9" s="4" t="inlineStr"/>
       <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="5" t="n"/>
+      <c r="AA9" s="4" t="inlineStr"/>
+      <c r="AB9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A10" s="4" t="n">
+        <v>539</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>301698</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Gaudencio Abordo Mem. National High School - Rizal NHS</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (UPDATED OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>425039.930975247</v>
       </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="inlineStr"/>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr"/>
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="inlineStr"/>
+      <c r="P10" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" s="4" t="inlineStr"/>
       <c r="R10" s="4" t="inlineStr"/>
       <c r="S10" s="4" t="inlineStr"/>
@@ -1344,70 +1376,73 @@
       <c r="X10" s="4" t="inlineStr"/>
       <c r="Y10" s="4" t="inlineStr"/>
       <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="5" t="n"/>
+      <c r="AA10" s="4" t="inlineStr"/>
+      <c r="AB10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A11" s="4" t="n">
+        <v>540</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>111192</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Macatumbalen Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)
 </t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="P11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="4" t="inlineStr"/>
       <c r="Q11" s="4" t="inlineStr"/>
       <c r="R11" s="4" t="inlineStr"/>
       <c r="S11" s="4" t="inlineStr"/>
@@ -1416,79 +1451,82 @@
       <c r="V11" s="4" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr"/>
       <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr"/>
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="AA11" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="n"/>
+      <c r="AB11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A12" s="4" t="n">
+        <v>541</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>111193</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>New Agutaya ES</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>266050.178</v>
       </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="P12" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="P12" s="4" t="inlineStr"/>
       <c r="Q12" s="4" t="inlineStr"/>
       <c r="R12" s="4" t="inlineStr"/>
       <c r="S12" s="4" t="inlineStr"/>
@@ -1497,79 +1535,82 @@
       <c r="V12" s="4" t="inlineStr"/>
       <c r="W12" s="4" t="inlineStr"/>
       <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr"/>
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="AA12" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="n"/>
+      <c r="AB12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A13" s="4" t="n">
+        <v>542</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>111201</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>San Vicente CS</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="L13" s="4" t="n">
         <v>263482.09</v>
       </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="P13" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="P13" s="4" t="inlineStr"/>
       <c r="Q13" s="4" t="inlineStr"/>
       <c r="R13" s="4" t="inlineStr"/>
       <c r="S13" s="4" t="inlineStr"/>
@@ -1578,79 +1619,82 @@
       <c r="V13" s="4" t="inlineStr"/>
       <c r="W13" s="4" t="inlineStr"/>
       <c r="X13" s="4" t="inlineStr"/>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr"/>
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="AA13" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA13" s="5" t="n"/>
+      <c r="AB13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A14" s="4" t="n">
+        <v>543</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>111199</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Panindigan ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>263473.62</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="inlineStr"/>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr"/>
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="P14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="4" t="inlineStr"/>
       <c r="Q14" s="4" t="inlineStr"/>
       <c r="R14" s="4" t="inlineStr"/>
       <c r="S14" s="4" t="inlineStr"/>
@@ -1661,69 +1705,72 @@
       <c r="X14" s="4" t="inlineStr"/>
       <c r="Y14" s="4" t="inlineStr"/>
       <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="5" t="n"/>
+      <c r="AA14" s="4" t="inlineStr"/>
+      <c r="AB14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A15" s="4" t="n">
+        <v>544</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>111200</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Port Barton ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="L15" s="4" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="P15" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="P15" s="4" t="inlineStr"/>
       <c r="Q15" s="4" t="inlineStr"/>
       <c r="R15" s="4" t="inlineStr"/>
       <c r="S15" s="4" t="inlineStr"/>
@@ -1732,79 +1779,82 @@
       <c r="V15" s="4" t="inlineStr"/>
       <c r="W15" s="4" t="inlineStr"/>
       <c r="X15" s="4" t="inlineStr"/>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr"/>
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
+      <c r="AA15" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA15" s="5" t="n"/>
+      <c r="AB15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A16" s="4" t="n">
+        <v>545</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>111191</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Kemdeng ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="L16" s="4" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="P16" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="P16" s="4" t="inlineStr"/>
       <c r="Q16" s="4" t="inlineStr"/>
       <c r="R16" s="4" t="inlineStr"/>
       <c r="S16" s="4" t="inlineStr"/>
@@ -1813,79 +1863,82 @@
       <c r="V16" s="4" t="inlineStr"/>
       <c r="W16" s="4" t="inlineStr"/>
       <c r="X16" s="4" t="inlineStr"/>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr"/>
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="AA16" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA16" s="5" t="n"/>
+      <c r="AB16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A17" s="4" t="n">
+        <v>546</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="E17" s="4" t="n">
         <v>111190</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Irawan ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="L17" s="4" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="P17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="4" t="inlineStr"/>
       <c r="Q17" s="4" t="inlineStr"/>
       <c r="R17" s="4" t="inlineStr"/>
       <c r="S17" s="4" t="inlineStr"/>
@@ -1896,69 +1949,72 @@
       <c r="X17" s="4" t="inlineStr"/>
       <c r="Y17" s="4" t="inlineStr"/>
       <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="5" t="n"/>
+      <c r="AA17" s="4" t="inlineStr"/>
+      <c r="AB17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A18" s="4" t="n">
+        <v>547</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="E18" s="4" t="n">
         <v>111204</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>TDC ES</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="L18" s="4" t="n">
         <v>266050.177807614</v>
       </c>
-      <c r="L18" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="P18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="4" t="inlineStr"/>
       <c r="Q18" s="4" t="inlineStr"/>
       <c r="R18" s="4" t="inlineStr"/>
       <c r="S18" s="4" t="inlineStr"/>
@@ -1967,79 +2023,82 @@
       <c r="V18" s="4" t="inlineStr"/>
       <c r="W18" s="4" t="inlineStr"/>
       <c r="X18" s="4" t="inlineStr"/>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr"/>
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="AA18" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA18" s="5" t="n"/>
+      <c r="AB18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A19" s="4" t="n">
+        <v>548</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="E19" s="4" t="n">
         <v>301660</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Alimanguan NHS</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="L19" s="4" t="n">
         <v>268172.954690988</v>
       </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="P19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P19" s="4" t="inlineStr"/>
       <c r="Q19" s="4" t="inlineStr"/>
       <c r="R19" s="4" t="inlineStr"/>
       <c r="S19" s="4" t="inlineStr"/>
@@ -2050,69 +2109,72 @@
       <c r="X19" s="4" t="inlineStr"/>
       <c r="Y19" s="4" t="inlineStr"/>
       <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="5" t="n"/>
+      <c r="AA19" s="4" t="inlineStr"/>
+      <c r="AB19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A20" s="4" t="n">
+        <v>549</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="E20" s="4" t="n">
         <v>301738</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>San Vicente NHS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="L20" s="4" t="n">
         <v>265604.86</v>
       </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="P20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P20" s="4" t="inlineStr"/>
       <c r="Q20" s="4" t="inlineStr"/>
       <c r="R20" s="4" t="inlineStr"/>
       <c r="S20" s="4" t="inlineStr"/>
@@ -2123,69 +2185,72 @@
       <c r="X20" s="4" t="inlineStr"/>
       <c r="Y20" s="4" t="inlineStr"/>
       <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="5" t="n"/>
+      <c r="AA20" s="4" t="inlineStr"/>
+      <c r="AB20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A21" s="4" t="n">
+        <v>550</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="E21" s="4" t="n">
         <v>301723</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Port Barton NHS</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="L21" s="4" t="n">
         <v>265604.86</v>
       </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
+      <c r="P21" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="P21" s="4" t="inlineStr"/>
       <c r="Q21" s="4" t="inlineStr"/>
       <c r="R21" s="4" t="inlineStr"/>
       <c r="S21" s="4" t="inlineStr"/>
@@ -2194,79 +2259,82 @@
       <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
       <c r="X21" s="4" t="inlineStr"/>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr"/>
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="AA21" s="4" t="inlineStr">
         <is>
           <t>For Termination</t>
         </is>
       </c>
-      <c r="AA21" s="5" t="n"/>
+      <c r="AB21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A22" s="4" t="n">
+        <v>551</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="E22" s="4" t="n">
         <v>301777</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>Tugdan NHS</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="L22" s="4" t="n">
         <v>178748.66</v>
       </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" s="4" t="inlineStr"/>
       <c r="R22" s="4" t="inlineStr"/>
       <c r="S22" s="4" t="inlineStr"/>
@@ -2277,69 +2345,72 @@
       <c r="X22" s="4" t="inlineStr"/>
       <c r="Y22" s="4" t="inlineStr"/>
       <c r="Z22" s="4" t="inlineStr"/>
-      <c r="AA22" s="5" t="n"/>
+      <c r="AA22" s="4" t="inlineStr"/>
+      <c r="AB22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A23" s="4" t="n">
+        <v>552</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="E23" s="4" t="n">
         <v>111262</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>Gui-ob Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="H23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="L23" s="4" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" s="4" t="inlineStr"/>
       <c r="R23" s="4" t="inlineStr"/>
       <c r="S23" s="4" t="inlineStr"/>
@@ -2350,69 +2421,72 @@
       <c r="X23" s="4" t="inlineStr"/>
       <c r="Y23" s="4" t="inlineStr"/>
       <c r="Z23" s="4" t="inlineStr"/>
-      <c r="AA23" s="5" t="n"/>
+      <c r="AA23" s="4" t="inlineStr"/>
+      <c r="AB23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A24" s="4" t="n">
+        <v>553</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="E24" s="4" t="n">
         <v>111265</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>San Roque Elementary School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="H24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="L24" s="4" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" s="4" t="inlineStr"/>
       <c r="R24" s="4" t="inlineStr"/>
       <c r="S24" s="4" t="inlineStr"/>
@@ -2423,69 +2497,72 @@
       <c r="X24" s="4" t="inlineStr"/>
       <c r="Y24" s="4" t="inlineStr"/>
       <c r="Z24" s="4" t="inlineStr"/>
-      <c r="AA24" s="5" t="n"/>
+      <c r="AA24" s="4" t="inlineStr"/>
+      <c r="AB24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A25" s="4" t="n">
+        <v>554</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="E25" s="4" t="n">
         <v>111255</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Alcantara CES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="H25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="L25" s="4" t="n">
         <v>171797.63</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" s="4" t="inlineStr"/>
       <c r="R25" s="4" t="inlineStr"/>
       <c r="S25" s="4" t="inlineStr"/>
@@ -2496,69 +2573,72 @@
       <c r="X25" s="4" t="inlineStr"/>
       <c r="Y25" s="4" t="inlineStr"/>
       <c r="Z25" s="4" t="inlineStr"/>
-      <c r="AA25" s="5" t="n"/>
+      <c r="AA25" s="4" t="inlineStr"/>
+      <c r="AB25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A26" s="4" t="n">
+        <v>555</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="E26" s="4" t="n">
         <v>111266</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Tugdan ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="H26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="L26" s="4" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" s="4" t="inlineStr"/>
       <c r="R26" s="4" t="inlineStr"/>
       <c r="S26" s="4" t="inlineStr"/>
@@ -2569,69 +2649,72 @@
       <c r="X26" s="4" t="inlineStr"/>
       <c r="Y26" s="4" t="inlineStr"/>
       <c r="Z26" s="4" t="inlineStr"/>
-      <c r="AA26" s="5" t="n"/>
+      <c r="AA26" s="4" t="inlineStr"/>
+      <c r="AB26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A27" s="4" t="n">
+        <v>556</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="E27" s="4" t="n">
         <v>171004</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>Felipe Madali MES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="H27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="L27" s="4" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="inlineStr"/>
+      <c r="P27" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" s="4" t="inlineStr"/>
       <c r="R27" s="4" t="inlineStr"/>
       <c r="S27" s="4" t="inlineStr"/>
@@ -2642,69 +2725,72 @@
       <c r="X27" s="4" t="inlineStr"/>
       <c r="Y27" s="4" t="inlineStr"/>
       <c r="Z27" s="4" t="inlineStr"/>
-      <c r="AA27" s="5" t="n"/>
+      <c r="AA27" s="4" t="inlineStr"/>
+      <c r="AB27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A28" s="4" t="n">
+        <v>557</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="E28" s="4" t="n">
         <v>111261</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>Don Manuel L. Solidum Memorial Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="H28" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="L28" s="4" t="n">
         <v>177047.63</v>
       </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q28" s="4" t="inlineStr"/>
       <c r="R28" s="4" t="inlineStr"/>
       <c r="S28" s="4" t="inlineStr"/>
@@ -2715,69 +2801,72 @@
       <c r="X28" s="4" t="inlineStr"/>
       <c r="Y28" s="4" t="inlineStr"/>
       <c r="Z28" s="4" t="inlineStr"/>
-      <c r="AA28" s="5" t="n"/>
+      <c r="AA28" s="4" t="inlineStr"/>
+      <c r="AB28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A29" s="4" t="n">
+        <v>558</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="E29" s="4" t="n">
         <v>301750</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>Banton NHS</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>BANTON</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="H29" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="L29" s="4" t="n">
         <v>199748.66</v>
       </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="inlineStr"/>
+      <c r="P29" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q29" s="4" t="inlineStr"/>
       <c r="R29" s="4" t="inlineStr"/>
       <c r="S29" s="4" t="inlineStr"/>
@@ -2788,69 +2877,72 @@
       <c r="X29" s="4" t="inlineStr"/>
       <c r="Y29" s="4" t="inlineStr"/>
       <c r="Z29" s="4" t="inlineStr"/>
-      <c r="AA29" s="5" t="n"/>
+      <c r="AA29" s="4" t="inlineStr"/>
+      <c r="AB29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A30" s="4" t="n">
+        <v>559</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="E30" s="4" t="n">
         <v>111269</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>Banton CES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>BANTON</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="H30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="L30" s="4" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N30" s="4" t="inlineStr"/>
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4" t="inlineStr"/>
+      <c r="P30" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q30" s="4" t="inlineStr"/>
       <c r="R30" s="4" t="inlineStr"/>
       <c r="S30" s="4" t="inlineStr"/>
@@ -2861,69 +2953,72 @@
       <c r="X30" s="4" t="inlineStr"/>
       <c r="Y30" s="4" t="inlineStr"/>
       <c r="Z30" s="4" t="inlineStr"/>
-      <c r="AA30" s="5" t="n"/>
+      <c r="AA30" s="4" t="inlineStr"/>
+      <c r="AB30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A31" s="4" t="n">
+        <v>560</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="E31" s="4" t="n">
         <v>111393</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Balogo ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="H31" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="L31" s="4" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N31" s="4" t="inlineStr"/>
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4" t="inlineStr"/>
+      <c r="P31" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" s="4" t="inlineStr"/>
       <c r="R31" s="4" t="inlineStr"/>
       <c r="S31" s="4" t="inlineStr"/>
@@ -2934,69 +3029,72 @@
       <c r="X31" s="4" t="inlineStr"/>
       <c r="Y31" s="4" t="inlineStr"/>
       <c r="Z31" s="4" t="inlineStr"/>
-      <c r="AA31" s="5" t="n"/>
+      <c r="AA31" s="4" t="inlineStr"/>
+      <c r="AB31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A32" s="4" t="n">
+        <v>561</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="E32" s="4" t="n">
         <v>111397</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>Calatrava Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="H32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="L32" s="4" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4" t="inlineStr"/>
+      <c r="P32" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" s="4" t="inlineStr"/>
       <c r="R32" s="4" t="inlineStr"/>
       <c r="S32" s="4" t="inlineStr"/>
@@ -3007,69 +3105,72 @@
       <c r="X32" s="4" t="inlineStr"/>
       <c r="Y32" s="4" t="inlineStr"/>
       <c r="Z32" s="4" t="inlineStr"/>
-      <c r="AA32" s="5" t="n"/>
+      <c r="AA32" s="4" t="inlineStr"/>
+      <c r="AB32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A33" s="4" t="n">
+        <v>562</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="E33" s="4" t="n">
         <v>309201</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Calatrava National High School</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="H33" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="L33" s="4" t="n">
         <v>183998.66</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr"/>
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4" t="inlineStr"/>
+      <c r="P33" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q33" s="4" t="inlineStr"/>
       <c r="R33" s="4" t="inlineStr"/>
       <c r="S33" s="4" t="inlineStr"/>
@@ -3080,69 +3181,72 @@
       <c r="X33" s="4" t="inlineStr"/>
       <c r="Y33" s="4" t="inlineStr"/>
       <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="5" t="n"/>
+      <c r="AA33" s="4" t="inlineStr"/>
+      <c r="AB33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A34" s="4" t="n">
+        <v>563</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="E34" s="4" t="n">
         <v>111412</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>Josefina Fetalino Malayo ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>CALATRAVA</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="H34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="L34" s="4" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L34" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="inlineStr"/>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N34" s="4" t="inlineStr"/>
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4" t="inlineStr"/>
+      <c r="P34" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" s="4" t="inlineStr"/>
       <c r="R34" s="4" t="inlineStr"/>
       <c r="S34" s="4" t="inlineStr"/>
@@ -3153,69 +3257,72 @@
       <c r="X34" s="4" t="inlineStr"/>
       <c r="Y34" s="4" t="inlineStr"/>
       <c r="Z34" s="4" t="inlineStr"/>
-      <c r="AA34" s="5" t="n"/>
+      <c r="AA34" s="4" t="inlineStr"/>
+      <c r="AB34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A35" s="4" t="n">
+        <v>564</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="E35" s="4" t="n">
         <v>111319</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Tacasan ES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="H35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="L35" s="4" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr"/>
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="4" t="inlineStr"/>
+      <c r="P35" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q35" s="4" t="inlineStr"/>
       <c r="R35" s="4" t="inlineStr"/>
       <c r="S35" s="4" t="inlineStr"/>
@@ -3226,69 +3333,72 @@
       <c r="X35" s="4" t="inlineStr"/>
       <c r="Y35" s="4" t="inlineStr"/>
       <c r="Z35" s="4" t="inlineStr"/>
-      <c r="AA35" s="5" t="n"/>
+      <c r="AA35" s="4" t="inlineStr"/>
+      <c r="AB35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A36" s="4" t="n">
+        <v>565</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="E36" s="4" t="n">
         <v>301766</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>Mabini NHS</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="H36" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="L36" s="4" t="n">
         <v>199748.66</v>
       </c>
-      <c r="L36" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N36" s="4" t="inlineStr"/>
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="inlineStr"/>
+      <c r="P36" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q36" s="4" t="inlineStr"/>
       <c r="R36" s="4" t="inlineStr"/>
       <c r="S36" s="4" t="inlineStr"/>
@@ -3299,69 +3409,72 @@
       <c r="X36" s="4" t="inlineStr"/>
       <c r="Y36" s="4" t="inlineStr"/>
       <c r="Z36" s="4" t="inlineStr"/>
-      <c r="AA36" s="5" t="n"/>
+      <c r="AA36" s="4" t="inlineStr"/>
+      <c r="AB36" s="5" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A37" s="4" t="n">
+        <v>566</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="E37" s="4" t="n">
         <v>111315</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Mahaba Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="H37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="L37" s="4" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L37" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr"/>
+      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4" t="inlineStr"/>
+      <c r="P37" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" s="4" t="inlineStr"/>
       <c r="R37" s="4" t="inlineStr"/>
       <c r="S37" s="4" t="inlineStr"/>
@@ -3372,69 +3485,72 @@
       <c r="X37" s="4" t="inlineStr"/>
       <c r="Y37" s="4" t="inlineStr"/>
       <c r="Z37" s="4" t="inlineStr"/>
-      <c r="AA37" s="5" t="n"/>
+      <c r="AA37" s="4" t="inlineStr"/>
+      <c r="AB37" s="5" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A38" s="4" t="n">
+        <v>567</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="E38" s="4" t="n">
         <v>111307</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>Alegria ES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="L38" s="4" t="n">
         <v>198047.63</v>
       </c>
-      <c r="L38" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4" t="inlineStr"/>
+      <c r="P38" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" s="4" t="inlineStr"/>
       <c r="R38" s="4" t="inlineStr"/>
       <c r="S38" s="4" t="inlineStr"/>
@@ -3445,69 +3561,72 @@
       <c r="X38" s="4" t="inlineStr"/>
       <c r="Y38" s="4" t="inlineStr"/>
       <c r="Z38" s="4" t="inlineStr"/>
-      <c r="AA38" s="5" t="n"/>
+      <c r="AA38" s="4" t="inlineStr"/>
+      <c r="AB38" s="5" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A39" s="4" t="n">
+        <v>568</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="E39" s="4" t="n">
         <v>301757</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>Corcuera National High School</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>CORCUERA</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="H39" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="L39" s="4" t="n">
         <v>199748.66</v>
       </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q39" s="4" t="inlineStr"/>
       <c r="R39" s="4" t="inlineStr"/>
       <c r="S39" s="4" t="inlineStr"/>
@@ -3518,69 +3637,72 @@
       <c r="X39" s="4" t="inlineStr"/>
       <c r="Y39" s="4" t="inlineStr"/>
       <c r="Z39" s="4" t="inlineStr"/>
-      <c r="AA39" s="5" t="n"/>
+      <c r="AA39" s="4" t="inlineStr"/>
+      <c r="AB39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A40" s="4" t="n">
+        <v>569</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="E40" s="4" t="n">
         <v>111350</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>Bunsoran ES</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>FERROL</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="H40" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="L40" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4" t="inlineStr"/>
+      <c r="P40" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q40" s="4" t="inlineStr"/>
       <c r="R40" s="4" t="inlineStr"/>
       <c r="S40" s="4" t="inlineStr"/>
@@ -3591,69 +3713,72 @@
       <c r="X40" s="4" t="inlineStr"/>
       <c r="Y40" s="4" t="inlineStr"/>
       <c r="Z40" s="4" t="inlineStr"/>
-      <c r="AA40" s="5" t="n"/>
+      <c r="AA40" s="4" t="inlineStr"/>
+      <c r="AB40" s="5" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A41" s="4" t="n">
+        <v>570</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="E41" s="4" t="n">
         <v>111351</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Claro M. Recto ES</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>FERROL</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H41" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="L41" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4" t="inlineStr"/>
+      <c r="P41" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" s="4" t="inlineStr"/>
       <c r="R41" s="4" t="inlineStr"/>
       <c r="S41" s="4" t="inlineStr"/>
@@ -3664,69 +3789,72 @@
       <c r="X41" s="4" t="inlineStr"/>
       <c r="Y41" s="4" t="inlineStr"/>
       <c r="Z41" s="4" t="inlineStr"/>
-      <c r="AA41" s="5" t="n"/>
+      <c r="AA41" s="4" t="inlineStr"/>
+      <c r="AB41" s="5" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A42" s="4" t="n">
+        <v>571</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="E42" s="4" t="n">
         <v>111292</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>Magdiwang ES</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="H42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H42" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="J42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="L42" s="4" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L42" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N42" s="4" t="inlineStr"/>
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4" t="inlineStr"/>
+      <c r="P42" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" s="4" t="inlineStr"/>
       <c r="R42" s="4" t="inlineStr"/>
       <c r="S42" s="4" t="inlineStr"/>
@@ -3737,69 +3865,72 @@
       <c r="X42" s="4" t="inlineStr"/>
       <c r="Y42" s="4" t="inlineStr"/>
       <c r="Z42" s="4" t="inlineStr"/>
-      <c r="AA42" s="5" t="n"/>
+      <c r="AA42" s="4" t="inlineStr"/>
+      <c r="AB42" s="5" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A43" s="4" t="n">
+        <v>572</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="E43" s="4" t="n">
         <v>111286</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>Dulangan ES</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="H43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="L43" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L43" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="inlineStr"/>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N43" s="4" t="inlineStr"/>
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="4" t="inlineStr"/>
+      <c r="P43" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q43" s="4" t="inlineStr"/>
       <c r="R43" s="4" t="inlineStr"/>
       <c r="S43" s="4" t="inlineStr"/>
@@ -3810,69 +3941,72 @@
       <c r="X43" s="4" t="inlineStr"/>
       <c r="Y43" s="4" t="inlineStr"/>
       <c r="Z43" s="4" t="inlineStr"/>
-      <c r="AA43" s="5" t="n"/>
+      <c r="AA43" s="4" t="inlineStr"/>
+      <c r="AB43" s="5" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A44" s="4" t="n">
+        <v>573</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="E44" s="4" t="n">
         <v>309207</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>Agutay NHS</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="H44" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H44" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="J44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="L44" s="4" t="n">
         <v>189248.66</v>
       </c>
-      <c r="L44" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N44" s="4" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4" t="inlineStr"/>
+      <c r="P44" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" s="4" t="inlineStr"/>
       <c r="R44" s="4" t="inlineStr"/>
       <c r="S44" s="4" t="inlineStr"/>
@@ -3883,69 +4017,72 @@
       <c r="X44" s="4" t="inlineStr"/>
       <c r="Y44" s="4" t="inlineStr"/>
       <c r="Z44" s="4" t="inlineStr"/>
-      <c r="AA44" s="5" t="n"/>
+      <c r="AA44" s="4" t="inlineStr"/>
+      <c r="AB44" s="5" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A45" s="4" t="n">
+        <v>574</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="E45" s="4" t="n">
         <v>111289</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>Ipil ES</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="H45" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="L45" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L45" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4" t="inlineStr"/>
+      <c r="P45" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q45" s="4" t="inlineStr"/>
       <c r="R45" s="4" t="inlineStr"/>
       <c r="S45" s="4" t="inlineStr"/>
@@ -3956,69 +4093,72 @@
       <c r="X45" s="4" t="inlineStr"/>
       <c r="Y45" s="4" t="inlineStr"/>
       <c r="Z45" s="4" t="inlineStr"/>
-      <c r="AA45" s="5" t="n"/>
+      <c r="AA45" s="4" t="inlineStr"/>
+      <c r="AB45" s="5" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A46" s="4" t="n">
+        <v>575</v>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="E46" s="4" t="n">
         <v>111297</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Tampayan ES</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>MAGDIWANG</t>
         </is>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="H46" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H46" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="J46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="L46" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L46" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N46" s="4" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" s="4" t="inlineStr"/>
       <c r="R46" s="4" t="inlineStr"/>
       <c r="S46" s="4" t="inlineStr"/>
@@ -4029,69 +4169,72 @@
       <c r="X46" s="4" t="inlineStr"/>
       <c r="Y46" s="4" t="inlineStr"/>
       <c r="Z46" s="4" t="inlineStr"/>
-      <c r="AA46" s="5" t="n"/>
+      <c r="AA46" s="4" t="inlineStr"/>
+      <c r="AB46" s="5" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A47" s="4" t="n">
+        <v>576</v>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="E47" s="4" t="n">
         <v>111394</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Bonga ES</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>SANTA MARIA (IMELDA)</t>
         </is>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="H47" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="J47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="L47" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L47" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N47" s="4" t="inlineStr"/>
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="4" t="inlineStr"/>
+      <c r="P47" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q47" s="4" t="inlineStr"/>
       <c r="R47" s="4" t="inlineStr"/>
       <c r="S47" s="4" t="inlineStr"/>
@@ -4102,69 +4245,72 @@
       <c r="X47" s="4" t="inlineStr"/>
       <c r="Y47" s="4" t="inlineStr"/>
       <c r="Z47" s="4" t="inlineStr"/>
-      <c r="AA47" s="5" t="n"/>
+      <c r="AA47" s="4" t="inlineStr"/>
+      <c r="AB47" s="5" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A48" s="4" t="n">
+        <v>577</v>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="E48" s="4" t="n">
         <v>111401</v>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>Concepcion Norte ES</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>SANTA MARIA (IMELDA)</t>
         </is>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="H48" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H48" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="J48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="L48" s="4" t="n">
         <v>182297.63</v>
       </c>
-      <c r="L48" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q48" s="4" t="inlineStr"/>
       <c r="R48" s="4" t="inlineStr"/>
       <c r="S48" s="4" t="inlineStr"/>
@@ -4175,69 +4321,72 @@
       <c r="X48" s="4" t="inlineStr"/>
       <c r="Y48" s="4" t="inlineStr"/>
       <c r="Z48" s="4" t="inlineStr"/>
-      <c r="AA48" s="5" t="n"/>
+      <c r="AA48" s="4" t="inlineStr"/>
+      <c r="AB48" s="5" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
+      <c r="A49" s="4" t="n">
+        <v>578</v>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Region IV-B</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
+          <t>Region IV-B</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="E49" s="4" t="n">
         <v>111415</v>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Talamban Elementary School</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>SANTA MARIA (IMELDA)</t>
         </is>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="H49" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="J49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GHWF</t>
         </is>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="L49" s="4" t="n">
         <v>187547.63</v>
       </c>
-      <c r="L49" s="4" t="inlineStr">
-        <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="4" t="inlineStr"/>
+      <c r="P49" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q49" s="4" t="inlineStr"/>
       <c r="R49" s="4" t="inlineStr"/>
       <c r="S49" s="4" t="inlineStr"/>
@@ -4248,11 +4397,12 @@
       <c r="X49" s="4" t="inlineStr"/>
       <c r="Y49" s="4" t="inlineStr"/>
       <c r="Z49" s="4" t="inlineStr"/>
-      <c r="AA49" s="5" t="n"/>
+      <c r="AA49" s="4" t="inlineStr"/>
+      <c r="AB49" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB49" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
